--- a/Data/DataSheet.xlsx
+++ b/Data/DataSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="41">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,8 +739,12 @@
       <c r="J5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>24</v>
       </c>
